--- a/Code/Results/Cases/Case_0_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.414130783878916</v>
+        <v>5.243275410925614</v>
       </c>
       <c r="D2">
-        <v>12.00637916359275</v>
+        <v>9.63159552473412</v>
       </c>
       <c r="E2">
-        <v>5.0713125777052</v>
+        <v>9.745651487040259</v>
       </c>
       <c r="F2">
-        <v>98.58828094651403</v>
+        <v>98.45660804162202</v>
       </c>
       <c r="G2">
-        <v>1.923464916667393</v>
+        <v>3.982324374123487</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>72.11409571982374</v>
+        <v>73.95804897221333</v>
       </c>
       <c r="J2">
-        <v>7.08099459826679</v>
+        <v>12.81920940909182</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.271597208065879</v>
+        <v>10.78354274999302</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.581908303669005</v>
+        <v>5.104302578158257</v>
       </c>
       <c r="D3">
-        <v>10.812965611601</v>
+        <v>9.507952370026224</v>
       </c>
       <c r="E3">
-        <v>5.149680757859488</v>
+        <v>9.769517484570418</v>
       </c>
       <c r="F3">
-        <v>90.85479036693216</v>
+        <v>97.91541962454865</v>
       </c>
       <c r="G3">
-        <v>1.985904173241199</v>
+        <v>3.995125036841381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>66.56914564901319</v>
+        <v>73.60855874301286</v>
       </c>
       <c r="J3">
-        <v>7.028045896883695</v>
+        <v>12.86737087250449</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.393806570572192</v>
+        <v>10.82757635981427</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.091225524415909</v>
+        <v>5.019783746689452</v>
       </c>
       <c r="D4">
-        <v>10.1516651914597</v>
+        <v>9.435544475530797</v>
       </c>
       <c r="E4">
-        <v>5.196557515890696</v>
+        <v>9.784905445944011</v>
       </c>
       <c r="F4">
-        <v>86.46813461439532</v>
+        <v>97.61875603217254</v>
       </c>
       <c r="G4">
-        <v>2.021123871341731</v>
+        <v>4.003331750578131</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>63.43511578535084</v>
+        <v>73.42041106809661</v>
       </c>
       <c r="J4">
-        <v>7.012005485980902</v>
+        <v>12.89946642057427</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.468040825506247</v>
+        <v>10.85617237651317</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.893426165347807</v>
+        <v>4.985594426278215</v>
       </c>
       <c r="D5">
-        <v>9.910634554840666</v>
+        <v>9.406939693557336</v>
       </c>
       <c r="E5">
-        <v>5.215525939161053</v>
+        <v>9.791361987479331</v>
       </c>
       <c r="F5">
-        <v>84.74048599244685</v>
+        <v>97.50679875096142</v>
       </c>
       <c r="G5">
-        <v>2.034988104162385</v>
+        <v>4.0067642038305</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>62.20304692263682</v>
+        <v>73.35035957527099</v>
       </c>
       <c r="J5">
-        <v>7.008718965991497</v>
+        <v>12.91317891532721</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.498361392428794</v>
+        <v>10.86821925778719</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.860649720052178</v>
+        <v>4.979934027558234</v>
       </c>
       <c r="D6">
-        <v>9.870914276544145</v>
+        <v>9.402244896250078</v>
       </c>
       <c r="E6">
-        <v>5.218671497663804</v>
+        <v>9.792445349846481</v>
       </c>
       <c r="F6">
-        <v>84.45665679222779</v>
+        <v>97.48874706387885</v>
       </c>
       <c r="G6">
-        <v>2.037267037016695</v>
+        <v>4.007339509630253</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62.00076709594021</v>
+        <v>73.33912641365839</v>
       </c>
       <c r="J6">
-        <v>7.008350268852246</v>
+        <v>12.91549407390703</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.503406102658257</v>
+        <v>10.8702434657943</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962176</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.088552139709431</v>
+        <v>5.019321568820033</v>
       </c>
       <c r="D7">
-        <v>10.14839274248561</v>
+        <v>9.435155025069633</v>
       </c>
       <c r="E7">
-        <v>5.196813687836883</v>
+        <v>9.784991767126741</v>
       </c>
       <c r="F7">
-        <v>86.44461952366052</v>
+        <v>97.61720999822766</v>
       </c>
       <c r="G7">
-        <v>2.021312529590731</v>
+        <v>4.003377683767832</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>63.41833701998628</v>
+        <v>73.41943956832101</v>
       </c>
       <c r="J7">
-        <v>7.011948910474997</v>
+        <v>12.89964878968791</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.468449184169398</v>
+        <v>10.85633324833795</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.120660547835504</v>
+        <v>5.195218212051261</v>
       </c>
       <c r="D8">
-        <v>11.58526681576335</v>
+        <v>9.588247358543605</v>
       </c>
       <c r="E8">
-        <v>5.098725258950195</v>
+        <v>9.753728849786659</v>
       </c>
       <c r="F8">
-        <v>95.81441571786662</v>
+        <v>98.2626014399999</v>
       </c>
       <c r="G8">
-        <v>1.945872459090452</v>
+        <v>3.986666547945268</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>70.12106943365497</v>
+        <v>73.83204242442777</v>
       </c>
       <c r="J8">
-        <v>7.058632663834646</v>
+        <v>12.83529069276941</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.314112242529463</v>
+        <v>10.79840295209613</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.6462375809972</v>
+        <v>5.544512110489636</v>
       </c>
       <c r="D9">
-        <v>15.21265273968759</v>
+        <v>9.915351719947468</v>
       </c>
       <c r="E9">
-        <v>4.879236805537214</v>
+        <v>9.698191484204195</v>
       </c>
       <c r="F9">
-        <v>121.2200917683139</v>
+        <v>99.81138231629886</v>
       </c>
       <c r="G9">
-        <v>1.739191594546107</v>
+        <v>3.95660891197088</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>88.99899906872415</v>
+        <v>74.85184375658956</v>
       </c>
       <c r="J9">
-        <v>7.378559810059915</v>
+        <v>12.72918208221869</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.974490928422927</v>
+        <v>10.69709614158877</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380646</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.6462375809972</v>
+        <v>5.801171664348588</v>
       </c>
       <c r="D10">
-        <v>15.21265273968759</v>
+        <v>10.17068383713315</v>
       </c>
       <c r="E10">
-        <v>4.879236805537214</v>
+        <v>9.660825974703046</v>
       </c>
       <c r="F10">
-        <v>121.2200917683139</v>
+        <v>101.1218036377929</v>
       </c>
       <c r="G10">
-        <v>1.739191594546107</v>
+        <v>3.936120989532287</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>88.99899906872415</v>
+        <v>75.73024894882062</v>
       </c>
       <c r="J10">
-        <v>7.378559810059915</v>
+        <v>12.66357806392304</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.974490928422927</v>
+        <v>10.63005304496841</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>28.34722074380646</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.6462375809972</v>
+        <v>5.917438816810114</v>
       </c>
       <c r="D11">
-        <v>15.21265273968759</v>
+        <v>10.28978353325449</v>
       </c>
       <c r="E11">
-        <v>4.879236805537214</v>
+        <v>9.644556442143518</v>
       </c>
       <c r="F11">
-        <v>121.2200917683139</v>
+        <v>101.7551583577385</v>
       </c>
       <c r="G11">
-        <v>1.739191594546107</v>
+        <v>3.927133830118985</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.99899906872415</v>
+        <v>76.15789633293703</v>
       </c>
       <c r="J11">
-        <v>7.378559810059915</v>
+        <v>12.63644007479575</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.974490928422927</v>
+        <v>10.60113406152992</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>28.34722074380646</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.6462375809972</v>
+        <v>5.96135840086671</v>
       </c>
       <c r="D12">
-        <v>15.21265273968759</v>
+        <v>10.33527996911248</v>
       </c>
       <c r="E12">
-        <v>4.879236805537214</v>
+        <v>9.638498886602722</v>
       </c>
       <c r="F12">
-        <v>121.2200917683139</v>
+        <v>102.0003087632882</v>
       </c>
       <c r="G12">
-        <v>1.739191594546107</v>
+        <v>3.923777404985022</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>88.99899906872415</v>
+        <v>76.32385627121387</v>
       </c>
       <c r="J12">
-        <v>7.378559810059915</v>
+        <v>12.6265549217905</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.974490928422927</v>
+        <v>10.59040842936012</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>28.34722074380646</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.6462375809972</v>
+        <v>5.951904915395414</v>
       </c>
       <c r="D13">
-        <v>15.21265273968759</v>
+        <v>10.32546433052</v>
       </c>
       <c r="E13">
-        <v>4.879236805537214</v>
+        <v>9.639798914351918</v>
       </c>
       <c r="F13">
-        <v>121.2200917683139</v>
+        <v>101.9472757098005</v>
       </c>
       <c r="G13">
-        <v>1.739191594546107</v>
+        <v>3.924498206141211</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>88.99899906872415</v>
+        <v>76.28793538448896</v>
       </c>
       <c r="J13">
-        <v>7.378559810059915</v>
+        <v>12.62866641910782</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.974490928422927</v>
+        <v>10.59270839106621</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>28.34722074380646</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.6462375809972</v>
+        <v>5.92105448239006</v>
       </c>
       <c r="D14">
-        <v>15.21265273968759</v>
+        <v>10.29351877632695</v>
       </c>
       <c r="E14">
-        <v>4.879236805537214</v>
+        <v>9.644056019713364</v>
       </c>
       <c r="F14">
-        <v>121.2200917683139</v>
+        <v>101.7752208246568</v>
       </c>
       <c r="G14">
-        <v>1.739191594546107</v>
+        <v>3.926856762878583</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.99899906872415</v>
+        <v>76.17146951648186</v>
       </c>
       <c r="J14">
-        <v>7.378559810059915</v>
+        <v>12.63561895879289</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.974490928422927</v>
+        <v>10.60024715078318</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>28.34722074380646</v>
+        <v>21.67368539489599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.6462375809972</v>
+        <v>5.902142534163306</v>
       </c>
       <c r="D15">
-        <v>15.21265273968759</v>
+        <v>10.27400194071092</v>
       </c>
       <c r="E15">
-        <v>4.879236805537214</v>
+        <v>9.646677039917954</v>
       </c>
       <c r="F15">
-        <v>121.2200917683139</v>
+        <v>101.6705227220417</v>
       </c>
       <c r="G15">
-        <v>1.739191594546107</v>
+        <v>3.928307512086111</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>88.99899906872415</v>
+        <v>76.10065366282461</v>
       </c>
       <c r="J15">
-        <v>7.378559810059915</v>
+        <v>12.63992863608554</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.974490928422927</v>
+        <v>10.60489415541532</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28.34722074380646</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.6462375809972</v>
+        <v>5.79356017266661</v>
       </c>
       <c r="D16">
-        <v>15.21265273968759</v>
+        <v>10.16295732205425</v>
       </c>
       <c r="E16">
-        <v>4.879236805537214</v>
+        <v>9.661903765552371</v>
       </c>
       <c r="F16">
-        <v>121.2200917683139</v>
+        <v>101.0811583391496</v>
       </c>
       <c r="G16">
-        <v>1.739191594546107</v>
+        <v>3.936714931062028</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>88.99899906872415</v>
+        <v>75.70286458618048</v>
       </c>
       <c r="J16">
-        <v>7.378559810059915</v>
+        <v>12.66540623682011</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.974490928422927</v>
+        <v>10.63197459920526</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.34722074380646</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.6462375809972</v>
+        <v>5.726795134269771</v>
       </c>
       <c r="D17">
-        <v>15.21265273968759</v>
+        <v>10.09557019533209</v>
       </c>
       <c r="E17">
-        <v>4.879236805537214</v>
+        <v>9.671430429916191</v>
       </c>
       <c r="F17">
-        <v>121.2200917683139</v>
+        <v>100.7291127173018</v>
       </c>
       <c r="G17">
-        <v>1.739191594546107</v>
+        <v>3.941957135118653</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>88.99899906872415</v>
+        <v>75.46601090799805</v>
       </c>
       <c r="J17">
-        <v>7.378559810059915</v>
+        <v>12.68173051875504</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.974490928422927</v>
+        <v>10.64899082976388</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28.34722074380646</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.6462375809972</v>
+        <v>5.688349722356528</v>
       </c>
       <c r="D18">
-        <v>15.21265273968759</v>
+        <v>10.0570900526706</v>
       </c>
       <c r="E18">
-        <v>4.879236805537214</v>
+        <v>9.676978542036148</v>
       </c>
       <c r="F18">
-        <v>121.2200917683139</v>
+        <v>100.5301334730141</v>
       </c>
       <c r="G18">
-        <v>1.739191594546107</v>
+        <v>3.945003711349473</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>88.99899906872415</v>
+        <v>75.33242109138828</v>
       </c>
       <c r="J18">
-        <v>7.378559810059915</v>
+        <v>12.69137432942896</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.974490928422927</v>
+        <v>10.65892686745585</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28.34722074380646</v>
+        <v>20.79000725568141</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.6462375809972</v>
+        <v>5.675326436906881</v>
       </c>
       <c r="D19">
-        <v>15.21265273968759</v>
+        <v>10.04411013268202</v>
       </c>
       <c r="E19">
-        <v>4.879236805537214</v>
+        <v>9.678868864969369</v>
       </c>
       <c r="F19">
-        <v>121.2200917683139</v>
+        <v>100.4633661729463</v>
       </c>
       <c r="G19">
-        <v>1.739191594546107</v>
+        <v>3.94604065407364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>88.99899906872415</v>
+        <v>75.28764403130893</v>
       </c>
       <c r="J19">
-        <v>7.378559810059915</v>
+        <v>12.69468320196416</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.974490928422927</v>
+        <v>10.66231664001299</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>28.34722074380646</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.6462375809972</v>
+        <v>5.733907219366929</v>
       </c>
       <c r="D20">
-        <v>15.21265273968759</v>
+        <v>10.10271498144336</v>
       </c>
       <c r="E20">
-        <v>4.879236805537214</v>
+        <v>9.670409207343022</v>
       </c>
       <c r="F20">
-        <v>121.2200917683139</v>
+        <v>100.7662257780586</v>
       </c>
       <c r="G20">
-        <v>1.739191594546107</v>
+        <v>3.941395851380396</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>88.99899906872415</v>
+        <v>75.49095102481314</v>
       </c>
       <c r="J20">
-        <v>7.378559810059915</v>
+        <v>12.67996641312099</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.974490928422927</v>
+        <v>10.64716404023999</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>28.34722074380646</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.6462375809972</v>
+        <v>5.930119226101021</v>
       </c>
       <c r="D21">
-        <v>15.21265273968759</v>
+        <v>10.30289143570847</v>
       </c>
       <c r="E21">
-        <v>4.879236805537214</v>
+        <v>9.64280281036833</v>
       </c>
       <c r="F21">
-        <v>121.2200917683139</v>
+        <v>101.8256137056617</v>
       </c>
       <c r="G21">
-        <v>1.739191594546107</v>
+        <v>3.926162735560506</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>88.99899906872415</v>
+        <v>76.20556943867992</v>
       </c>
       <c r="J21">
-        <v>7.378559810059915</v>
+        <v>12.63356618702003</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.974490928422927</v>
+        <v>10.59802673204518</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>28.34722074380646</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.6462375809972</v>
+        <v>6.057708953831852</v>
       </c>
       <c r="D22">
-        <v>15.21265273968759</v>
+        <v>10.43601350788469</v>
       </c>
       <c r="E22">
-        <v>4.879236805537214</v>
+        <v>9.625362264286322</v>
       </c>
       <c r="F22">
-        <v>121.2200917683139</v>
+        <v>102.5489264674501</v>
       </c>
       <c r="G22">
-        <v>1.739191594546107</v>
+        <v>3.916479385065543</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>88.99899906872415</v>
+        <v>76.69602939196372</v>
       </c>
       <c r="J22">
-        <v>7.378559810059915</v>
+        <v>12.60552361654176</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.974490928422927</v>
+        <v>10.56722540899465</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>28.34722074380646</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.6462375809972</v>
+        <v>5.989682680815246</v>
       </c>
       <c r="D23">
-        <v>15.21265273968759</v>
+        <v>10.36476292712577</v>
       </c>
       <c r="E23">
-        <v>4.879236805537214</v>
+        <v>9.634615999907702</v>
       </c>
       <c r="F23">
-        <v>121.2200917683139</v>
+        <v>102.1600656514109</v>
       </c>
       <c r="G23">
-        <v>1.739191594546107</v>
+        <v>3.921623006817347</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>88.99899906872415</v>
+        <v>76.43212575397519</v>
       </c>
       <c r="J23">
-        <v>7.378559810059915</v>
+        <v>12.62028078560847</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.974490928422927</v>
+        <v>10.5835451161513</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>28.34722074380646</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.6462375809972</v>
+        <v>5.730692033712003</v>
       </c>
       <c r="D24">
-        <v>15.21265273968759</v>
+        <v>10.09948400665167</v>
       </c>
       <c r="E24">
-        <v>4.879236805537214</v>
+        <v>9.67087068048717</v>
       </c>
       <c r="F24">
-        <v>121.2200917683139</v>
+        <v>100.7494363186425</v>
       </c>
       <c r="G24">
-        <v>1.739191594546107</v>
+        <v>3.941649505628837</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>88.99899906872415</v>
+        <v>75.47966755916451</v>
       </c>
       <c r="J24">
-        <v>7.378559810059915</v>
+        <v>12.68076315946363</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.974490928422927</v>
+        <v>10.64798945453067</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28.34722074380646</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.6462375809972</v>
+        <v>5.449832611648653</v>
       </c>
       <c r="D25">
-        <v>15.21265273968759</v>
+        <v>9.824120275499064</v>
       </c>
       <c r="E25">
-        <v>4.879236805537214</v>
+        <v>9.712606294651851</v>
       </c>
       <c r="F25">
-        <v>121.2200917683139</v>
+        <v>99.36204316488789</v>
       </c>
       <c r="G25">
-        <v>1.739191594546107</v>
+        <v>3.964455808103859</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>88.99899906872415</v>
+        <v>74.55329849326844</v>
       </c>
       <c r="J25">
-        <v>7.378559810059915</v>
+        <v>12.75572558983968</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.974490928422927</v>
+        <v>10.72319724458162</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>28.34722074380646</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.243275410925614</v>
+        <v>8.414130783879186</v>
       </c>
       <c r="D2">
-        <v>9.63159552473412</v>
+        <v>12.00637916359283</v>
       </c>
       <c r="E2">
-        <v>9.745651487040259</v>
+        <v>5.071312577705168</v>
       </c>
       <c r="F2">
-        <v>98.45660804162202</v>
+        <v>98.58828094651423</v>
       </c>
       <c r="G2">
-        <v>3.982324374123487</v>
+        <v>1.923464916667398</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>73.95804897221333</v>
+        <v>72.11409571982388</v>
       </c>
       <c r="J2">
-        <v>12.81920940909182</v>
+        <v>7.080994598266767</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.78354274999302</v>
+        <v>5.271597208065792</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.104302578158257</v>
+        <v>7.581908303669064</v>
       </c>
       <c r="D3">
-        <v>9.507952370026224</v>
+        <v>10.81296561160099</v>
       </c>
       <c r="E3">
-        <v>9.769517484570418</v>
+        <v>5.149680757859436</v>
       </c>
       <c r="F3">
-        <v>97.91541962454865</v>
+        <v>90.85479036693191</v>
       </c>
       <c r="G3">
-        <v>3.995125036841381</v>
+        <v>1.98590417324123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>73.60855874301286</v>
+        <v>66.56914564901297</v>
       </c>
       <c r="J3">
-        <v>12.86737087250449</v>
+        <v>7.028045896883659</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.82757635981427</v>
+        <v>5.393806570572137</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.2256181799734</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.019783746689452</v>
+        <v>7.091225524415767</v>
       </c>
       <c r="D4">
-        <v>9.435544475530797</v>
+        <v>10.1516651914596</v>
       </c>
       <c r="E4">
-        <v>9.784905445944011</v>
+        <v>5.196557515890823</v>
       </c>
       <c r="F4">
-        <v>97.61875603217254</v>
+        <v>86.46813461439504</v>
       </c>
       <c r="G4">
-        <v>4.003331750578131</v>
+        <v>2.021123871341983</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>73.42041106809661</v>
+        <v>63.43511578535066</v>
       </c>
       <c r="J4">
-        <v>12.89946642057427</v>
+        <v>7.012005485980949</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.85617237651317</v>
+        <v>5.468040825506347</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.985594426278215</v>
+        <v>6.893426165347878</v>
       </c>
       <c r="D5">
-        <v>9.406939693557336</v>
+        <v>9.910634554840611</v>
       </c>
       <c r="E5">
-        <v>9.791361987479331</v>
+        <v>5.215525939161117</v>
       </c>
       <c r="F5">
-        <v>97.50679875096142</v>
+        <v>84.74048599244639</v>
       </c>
       <c r="G5">
-        <v>4.0067642038305</v>
+        <v>2.034988104162623</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>73.35035957527099</v>
+        <v>62.20304692263654</v>
       </c>
       <c r="J5">
-        <v>12.91317891532721</v>
+        <v>7.008718965991571</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.86821925778719</v>
+        <v>5.498361392428885</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.979934027558234</v>
+        <v>6.860649720052109</v>
       </c>
       <c r="D6">
-        <v>9.402244896250078</v>
+        <v>9.870914276544196</v>
       </c>
       <c r="E6">
-        <v>9.792445349846481</v>
+        <v>5.218671497663799</v>
       </c>
       <c r="F6">
-        <v>97.48874706387885</v>
+        <v>84.45665679222769</v>
       </c>
       <c r="G6">
-        <v>4.007339509630253</v>
+        <v>2.037267037016929</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>73.33912641365839</v>
+        <v>62.00076709594013</v>
       </c>
       <c r="J6">
-        <v>12.91549407390703</v>
+        <v>7.00835026885218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.8702434657943</v>
+        <v>5.503406102658279</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.9008433996218</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.019321568820033</v>
+        <v>7.088552139709617</v>
       </c>
       <c r="D7">
-        <v>9.435155025069633</v>
+        <v>10.14839274248561</v>
       </c>
       <c r="E7">
-        <v>9.784991767126741</v>
+        <v>5.19681368783675</v>
       </c>
       <c r="F7">
-        <v>97.61720999822766</v>
+        <v>86.44461952366086</v>
       </c>
       <c r="G7">
-        <v>4.003377683767832</v>
+        <v>2.021312529590726</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>73.41943956832101</v>
+        <v>63.41833701998652</v>
       </c>
       <c r="J7">
-        <v>12.89964878968791</v>
+        <v>7.01194891047488</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.85633324833795</v>
+        <v>5.46844918416924</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.195218212051261</v>
+        <v>8.120660547835412</v>
       </c>
       <c r="D8">
-        <v>9.588247358543605</v>
+        <v>11.58526681576331</v>
       </c>
       <c r="E8">
-        <v>9.753728849786659</v>
+        <v>5.098725258950094</v>
       </c>
       <c r="F8">
-        <v>98.2626014399999</v>
+        <v>95.81441571786648</v>
       </c>
       <c r="G8">
-        <v>3.986666547945268</v>
+        <v>1.945872459090828</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>73.83204242442777</v>
+        <v>70.12106943365487</v>
       </c>
       <c r="J8">
-        <v>12.83529069276941</v>
+        <v>7.058632663834643</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.79840295209613</v>
+        <v>5.314112242529434</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.544512110489636</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D9">
-        <v>9.915351719947468</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E9">
-        <v>9.698191484204195</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F9">
-        <v>99.81138231629886</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G9">
-        <v>3.95660891197088</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.85184375658956</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J9">
-        <v>12.72918208221869</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.69709614158877</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.801171664348588</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D10">
-        <v>10.17068383713315</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E10">
-        <v>9.660825974703046</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F10">
-        <v>101.1218036377929</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G10">
-        <v>3.936120989532287</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>75.73024894882062</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J10">
-        <v>12.66357806392304</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.63005304496841</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.917438816810114</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D11">
-        <v>10.28978353325449</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E11">
-        <v>9.644556442143518</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F11">
-        <v>101.7551583577385</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G11">
-        <v>3.927133830118985</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>76.15789633293703</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J11">
-        <v>12.63644007479575</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.60113406152992</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.96135840086671</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D12">
-        <v>10.33527996911248</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E12">
-        <v>9.638498886602722</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F12">
-        <v>102.0003087632882</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G12">
-        <v>3.923777404985022</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>76.32385627121387</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J12">
-        <v>12.6265549217905</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.59040842936012</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.951904915395414</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D13">
-        <v>10.32546433052</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E13">
-        <v>9.639798914351918</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F13">
-        <v>101.9472757098005</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G13">
-        <v>3.924498206141211</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>76.28793538448896</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J13">
-        <v>12.62866641910782</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.59270839106621</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.92105448239006</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D14">
-        <v>10.29351877632695</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E14">
-        <v>9.644056019713364</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F14">
-        <v>101.7752208246568</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G14">
-        <v>3.926856762878583</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>76.17146951648186</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J14">
-        <v>12.63561895879289</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.60024715078318</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489599</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.902142534163306</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D15">
-        <v>10.27400194071092</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E15">
-        <v>9.646677039917954</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F15">
-        <v>101.6705227220417</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G15">
-        <v>3.928307512086111</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>76.10065366282461</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J15">
-        <v>12.63992863608554</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.60489415541532</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.79356017266661</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D16">
-        <v>10.16295732205425</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E16">
-        <v>9.661903765552371</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F16">
-        <v>101.0811583391496</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G16">
-        <v>3.936714931062028</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>75.70286458618048</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J16">
-        <v>12.66540623682011</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.63197459920526</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.726795134269771</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D17">
-        <v>10.09557019533209</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E17">
-        <v>9.671430429916191</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F17">
-        <v>100.7291127173018</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G17">
-        <v>3.941957135118653</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>75.46601090799805</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J17">
-        <v>12.68173051875504</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.64899082976388</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.688349722356528</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D18">
-        <v>10.0570900526706</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E18">
-        <v>9.676978542036148</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F18">
-        <v>100.5301334730141</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G18">
-        <v>3.945003711349473</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>75.33242109138828</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J18">
-        <v>12.69137432942896</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.65892686745585</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568141</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.675326436906881</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D19">
-        <v>10.04411013268202</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E19">
-        <v>9.678868864969369</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F19">
-        <v>100.4633661729463</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G19">
-        <v>3.94604065407364</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>75.28764403130893</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J19">
-        <v>12.69468320196416</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.66231664001299</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.733907219366929</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D20">
-        <v>10.10271498144336</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E20">
-        <v>9.670409207343022</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F20">
-        <v>100.7662257780586</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G20">
-        <v>3.941395851380396</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>75.49095102481314</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J20">
-        <v>12.67996641312099</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.64716404023999</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.930119226101021</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D21">
-        <v>10.30289143570847</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E21">
-        <v>9.64280281036833</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F21">
-        <v>101.8256137056617</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G21">
-        <v>3.926162735560506</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>76.20556943867992</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J21">
-        <v>12.63356618702003</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.59802673204518</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.057708953831852</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D22">
-        <v>10.43601350788469</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E22">
-        <v>9.625362264286322</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F22">
-        <v>102.5489264674501</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G22">
-        <v>3.916479385065543</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>76.69602939196372</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J22">
-        <v>12.60552361654176</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.56722540899465</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.989682680815246</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D23">
-        <v>10.36476292712577</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E23">
-        <v>9.634615999907702</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F23">
-        <v>102.1600656514109</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G23">
-        <v>3.921623006817347</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>76.43212575397519</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J23">
-        <v>12.62028078560847</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.5835451161513</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.730692033712003</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D24">
-        <v>10.09948400665167</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E24">
-        <v>9.67087068048717</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F24">
-        <v>100.7494363186425</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G24">
-        <v>3.941649505628837</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>75.47966755916451</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J24">
-        <v>12.68076315946363</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.64798945453067</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.449832611648653</v>
+        <v>10.64623758099721</v>
       </c>
       <c r="D25">
-        <v>9.824120275499064</v>
+        <v>15.21265273968769</v>
       </c>
       <c r="E25">
-        <v>9.712606294651851</v>
+        <v>4.879236805537142</v>
       </c>
       <c r="F25">
-        <v>99.36204316488789</v>
+        <v>121.2200917683148</v>
       </c>
       <c r="G25">
-        <v>3.964455808103859</v>
+        <v>1.739191594545992</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>74.55329849326844</v>
+        <v>88.9989990687248</v>
       </c>
       <c r="J25">
-        <v>12.75572558983968</v>
+        <v>7.378559810059911</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.72319724458162</v>
+        <v>4.974490928422894</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O25">
         <v>0</v>
